--- a/data/number_of_national_health_insurers/0096.xlsx
+++ b/data/number_of_national_health_insurers/0096.xlsx
@@ -1,46 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\t10339\デスクトップ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A70AC173-7E7B-426F-AB54-31E9FD1C380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="768" yWindow="804" windowWidth="22140" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+  <si>
+    <t>#property</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>numberOfInsured</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>高松市</t>
+  </si>
+  <si>
+    <t>2017.3.31</t>
+  </si>
+  <si>
+    <t>89843</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2018.3.31</t>
+  </si>
+  <si>
+    <t>86311</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2019.3.31</t>
+  </si>
+  <si>
+    <t>82961</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2020.3.31</t>
+  </si>
+  <si>
+    <t>80146</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2021.3.31</t>
+  </si>
+  <si>
+    <t>78762</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2022.3.31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023.3.31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -64,14 +142,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,117 +485,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>#property</v>
-      </c>
-      <c r="B1" t="str">
-        <v>address</v>
-      </c>
-      <c r="C1" t="str">
-        <v>date</v>
-      </c>
-      <c r="D1" t="str">
-        <v>numberOfInsured</v>
-      </c>
-      <c r="E1" t="str">
-        <v>note</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2017.3.31</v>
-      </c>
-      <c r="D2" t="str">
-        <v>89843</v>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2018.3.31</v>
-      </c>
-      <c r="D3" t="str">
-        <v>86311</v>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2019.3.31</v>
-      </c>
-      <c r="D4" t="str">
-        <v>82961</v>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2020.3.31</v>
-      </c>
-      <c r="D5" t="str">
-        <v>80146</v>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2021.3.31</v>
-      </c>
-      <c r="D6" t="str">
-        <v>78762</v>
-      </c>
-      <c r="E6" t="str">
-        <v/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>76438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>72286</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/number_of_national_health_insurers/0096.xlsx
+++ b/data/number_of_national_health_insurers/0096.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\t10339\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\t10339\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A70AC173-7E7B-426F-AB54-31E9FD1C380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="804" windowWidth="22140" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="804" windowWidth="22140" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>#property</t>
   </si>
@@ -99,13 +98,17 @@
   </si>
   <si>
     <t>2023.3.31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024.3.31</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -485,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -624,10 +627,24 @@
         <v>72286</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>68290</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
   </ignoredErrors>
